--- a/sch/DeviationTX Supported Models.xlsx
+++ b/sch/DeviationTX Supported Models.xlsx
@@ -17,7 +17,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$267</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1400,7 +1401,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1465,16 +1466,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3822,7 +3823,7 @@
         <v>41689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="10.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>109</v>
       </c>
